--- a/src/test/resources/excelfiles/TestData.xlsx
+++ b/src/test/resources/excelfiles/TestData.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFD1246-22C4-4E73-B907-1239A98D3D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\framework\SepBatchDataDrivenFramework\src\test\resources\excelfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1154DC6D-0CBA-47D1-8A04-B1EADF9011EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="flightSearch" sheetId="1" r:id="rId1"/>
-    <sheet name="hotelSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="searchFlight" sheetId="1" r:id="rId1"/>
+    <sheet name="searchHotel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,33 +26,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Origin</t>
   </si>
   <si>
-    <t>Departure Date</t>
-  </si>
-  <si>
-    <t>Return Date</t>
-  </si>
-  <si>
     <t>Destination</t>
   </si>
   <si>
-    <t>Validate Text</t>
+    <t>DepartureDate</t>
+  </si>
+  <si>
+    <t>ReturnDate</t>
+  </si>
+  <si>
+    <t>ValidateTitle</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
   </si>
   <si>
     <t>Select your departure to Hyderabad</t>
   </si>
   <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Going</t>
+    <t>21 Nov 2020</t>
+  </si>
+  <si>
+    <t>26 Nov 2020</t>
+  </si>
+  <si>
+    <t>GoingTo</t>
   </si>
   <si>
     <t>Checkin Date</t>
@@ -56,22 +67,7 @@
     <t>Checkout Date</t>
   </si>
   <si>
-    <t>Validate Title</t>
-  </si>
-  <si>
-    <t>Hyderabad (and vicinity), India Hotel Search Results</t>
-  </si>
-  <si>
-    <t>11/28/2019</t>
-  </si>
-  <si>
-    <t>11/30/2019</t>
-  </si>
-  <si>
-    <t>11/27/2019</t>
-  </si>
-  <si>
-    <t>11/29/2019</t>
+    <t>Hyderabad (and vicinity), Telangana, India Hotel Search Results</t>
   </si>
 </sst>
 </file>
@@ -87,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,13 +92,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,14 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,19 +411,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -453,70 +441,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C3FDF3-0261-41A6-9635-DAB5CB3F534E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D542235-F652-48D6-984B-5F436D09A168}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="54.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="51.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
